--- a/ResultadoEleicoesDistritos/BRAGANÇA_BRAGANÇA.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGANÇA_BRAGANÇA.xlsx
@@ -597,64 +597,64 @@
         <v>10593</v>
       </c>
       <c r="H2" t="n">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="I2" t="n">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="J2" t="n">
-        <v>4442</v>
+        <v>4396</v>
       </c>
       <c r="K2" t="n">
+        <v>24</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1194</v>
+      </c>
+      <c r="M2" t="n">
+        <v>72</v>
+      </c>
+      <c r="N2" t="n">
+        <v>802</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>8</v>
+      </c>
+      <c r="R2" t="n">
+        <v>50</v>
+      </c>
+      <c r="S2" t="n">
+        <v>505</v>
+      </c>
+      <c r="T2" t="n">
+        <v>759</v>
+      </c>
+      <c r="U2" t="n">
+        <v>54</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6718</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6716</v>
+      </c>
+      <c r="Y2" t="n">
         <v>12</v>
       </c>
-      <c r="L2" t="n">
-        <v>1201</v>
-      </c>
-      <c r="M2" t="n">
-        <v>81</v>
-      </c>
-      <c r="N2" t="n">
-        <v>789</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>10</v>
-      </c>
-      <c r="R2" t="n">
-        <v>57</v>
-      </c>
-      <c r="S2" t="n">
-        <v>484</v>
-      </c>
-      <c r="T2" t="n">
-        <v>770</v>
-      </c>
-      <c r="U2" t="n">
-        <v>68</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6731</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3</v>
-      </c>
-      <c r="X2" t="n">
-        <v>6708</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10</v>
-      </c>
       <c r="Z2" t="n">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="AA2" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
